--- a/stats/hw4/Kumar_Navarurh_HW4.xlsx
+++ b/stats/hw4/Kumar_Navarurh_HW4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navar\OneDrive\Documents\UTD\assignments\stats\hw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03E0E473-498D-4D25-BEC6-D6C69C982DAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AB15BAA6-8912-4F8B-A1C6-9CC289B1A783}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="19320" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t xml:space="preserve">This is a required HW. You must score a minimum of 75% on it.  </t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">Null: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name: </t>
   </si>
   <si>
     <t>Problem 3</t>
@@ -276,9 +273,6 @@
     <t xml:space="preserve">What will be the  Null Hypothesis and Alternate Hypothesis? </t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate:  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q 4 </t>
   </si>
   <si>
@@ -421,28 +415,13 @@
     <t>1: What is the Null Hypothesis?</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
     <t>2. From the ANOVA table, what is the p-value?</t>
-  </si>
-  <si>
-    <t>2.</t>
   </si>
   <si>
     <t>3. From ANOVA table, what is  a. F-statistics for the data?  b. What is F-critical?</t>
   </si>
   <si>
-    <t>3a.</t>
-  </si>
-  <si>
-    <t>3b.</t>
-  </si>
-  <si>
     <t>4. Based on the ANOVA table, is there any indication of differences in mean ratings across the plants?  That is, would you reject the Null? Explain below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. </t>
   </si>
   <si>
     <t>Empowerment Ratings from Five Plants</t>
@@ -474,6 +453,171 @@
   <si>
     <t>Navarurh Kumar</t>
   </si>
+  <si>
+    <t>The Packers have the most variability in weights</t>
+  </si>
+  <si>
+    <t>No. Just based on the mean weights we cannot make a prediction as to whether the teams statistically have the same weight</t>
+  </si>
+  <si>
+    <t>2-tail test</t>
+  </si>
+  <si>
+    <t>Presentation ratings given by Husbands and Wives are not equal.</t>
+  </si>
+  <si>
+    <t>Name: Navarurh Kumar</t>
+  </si>
+  <si>
+    <t>1. The average of all five regions are equal in value.</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>2. 0.03618</t>
+  </si>
+  <si>
+    <t>3a. 2.6163</t>
+  </si>
+  <si>
+    <t>3b. 2.41</t>
+  </si>
+  <si>
+    <t>Null: The mean weight of players of all teams is equal.</t>
+  </si>
+  <si>
+    <t>Alternate:  The mean weight of playes of all teams is not equal.</t>
+  </si>
+  <si>
+    <t>At α = .05, I would not reject the null as the F stat is lower than the F critical</t>
+  </si>
+  <si>
+    <t>The mean weights of the players of football teams in this analysis are the equal.</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>The p-value for the t-test is 0.07 hence we will not reject the null.</t>
+  </si>
+  <si>
+    <t>The average ratings for presentations given by husbands and wives are equal.</t>
+  </si>
+  <si>
+    <t>4. Since the p-value of the test is 0.0362 and is less that the alpha we have assumed for this</t>
+  </si>
+  <si>
+    <t>different from each other.</t>
+  </si>
+  <si>
+    <t>problem we will reject the null and say that the mean ratings across different regions are</t>
+  </si>
+  <si>
+    <t>The ratings across groups for different versions are equal</t>
+  </si>
+  <si>
+    <t>The ratings across groups for different versions are unequal</t>
+  </si>
+  <si>
+    <t>The ratings across versions for different groups are equal</t>
+  </si>
+  <si>
+    <t>The ratings across versions for different groups are unequal</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor Without Replication</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>The grouping for audience has a p-value of 0.59 so we can safely conclude that the preferences based on age, ethnicity and gender are the same.</t>
+  </si>
+  <si>
+    <t>For different versions we see that the p-value of the test is 0.039 which is smaller than our assumed alpha of 0.05 so we will be rejecting the null and can conclude that the ratings for different versions are not equal.</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +628,7 @@
     <numFmt numFmtId="164" formatCode=";;;"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,6 +782,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -683,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1179,12 +1331,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -1449,6 +1612,11 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1464,15 +1632,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1485,18 +1665,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1536,28 +1704,28 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,6 +1811,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1693,41 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2167,43 +2335,43 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2327,7 +2495,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2340,7 +2508,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2354,7 +2522,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
@@ -2389,12 +2557,12 @@
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="B19" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2563,7 +2731,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F33" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2583,11 +2751,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2598,75 +2764,77 @@
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
+      <c r="B1" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="C3" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="126"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="126"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="109"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="E10" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="F10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="G10" s="52" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2960,215 +3128,253 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+        <v>37</v>
+      </c>
+      <c r="C28" s="60">
+        <f>AVERAGE(C11:C27)</f>
+        <v>248.47058823529412</v>
+      </c>
+      <c r="D28" s="60">
+        <f t="shared" ref="D28:G28" si="0">AVERAGE(D11:D27)</f>
+        <v>249.76470588235293</v>
+      </c>
+      <c r="E28" s="60">
+        <f t="shared" si="0"/>
+        <v>255.64705882352942</v>
+      </c>
+      <c r="F28" s="60">
+        <f t="shared" si="0"/>
+        <v>246.94117647058823</v>
+      </c>
+      <c r="G28" s="60">
+        <f t="shared" si="0"/>
+        <v>240.8235294117647</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="61">
+        <f>_xlfn.STDEV.S(C11:C27)</f>
+        <v>16.055052347543217</v>
+      </c>
+      <c r="D29" s="61">
+        <f t="shared" ref="D29:G29" si="1">_xlfn.STDEV.S(D11:D27)</f>
+        <v>19.84165256400253</v>
+      </c>
+      <c r="E29" s="61">
+        <f t="shared" si="1"/>
+        <v>17.961560262372071</v>
+      </c>
+      <c r="F29" s="61">
+        <f t="shared" si="1"/>
+        <v>19.145725985958634</v>
+      </c>
+      <c r="G29" s="61">
+        <f t="shared" si="1"/>
+        <v>16.986153530587963</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="114"/>
+      <c r="C33" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="117"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="117"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="105"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="111"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="109"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="111"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="114"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
+      <c r="C39" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="117"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="115"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="117"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="105"/>
+        <v>51</v>
+      </c>
+      <c r="C43" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="114"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="120"/>
+      <c r="C45" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="105"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="121"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="123"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="108"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C47" s="118" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
+      <c r="C47" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="123"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="108"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
-      <c r="G51" s="105"/>
+        <v>65</v>
+      </c>
+      <c r="C51" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="109"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="111"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="114"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53" s="118"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="120"/>
+      <c r="C53" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="105"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="121"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="123"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="108"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="105"/>
+        <v>67</v>
+      </c>
+      <c r="C57" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="111"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="109"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="111"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="114"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="112"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="114"/>
+      <c r="C59" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="117"/>
     </row>
     <row r="60" spans="1:7" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="120"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
@@ -3177,8 +3383,274 @@
       <c r="F61" s="63"/>
       <c r="G61" s="63"/>
     </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="95">
+        <v>17</v>
+      </c>
+      <c r="C66" s="95">
+        <v>4224</v>
+      </c>
+      <c r="D66" s="95">
+        <v>248.47058823529412</v>
+      </c>
+      <c r="E66" s="95">
+        <v>257.76470588235293</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="95">
+        <v>17</v>
+      </c>
+      <c r="C67" s="95">
+        <v>4246</v>
+      </c>
+      <c r="D67" s="95">
+        <v>249.76470588235293</v>
+      </c>
+      <c r="E67" s="95">
+        <v>393.69117647058823</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="95">
+        <v>17</v>
+      </c>
+      <c r="C68" s="95">
+        <v>4346</v>
+      </c>
+      <c r="D68" s="95">
+        <v>255.64705882352942</v>
+      </c>
+      <c r="E68" s="95">
+        <v>322.61764705882348</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="95">
+        <v>17</v>
+      </c>
+      <c r="C69" s="95">
+        <v>4198</v>
+      </c>
+      <c r="D69" s="95">
+        <v>246.94117647058823</v>
+      </c>
+      <c r="E69" s="95">
+        <v>366.55882352941177</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="96">
+        <v>17</v>
+      </c>
+      <c r="C70" s="96">
+        <v>4094</v>
+      </c>
+      <c r="D70" s="96">
+        <v>240.8235294117647</v>
+      </c>
+      <c r="E70" s="96">
+        <v>288.52941176470591</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="95">
+        <v>1936.1882352941248</v>
+      </c>
+      <c r="C75" s="95">
+        <v>4</v>
+      </c>
+      <c r="D75" s="95">
+        <v>484.04705882353119</v>
+      </c>
+      <c r="E75" s="95">
+        <v>1.485570890840658</v>
+      </c>
+      <c r="F75" s="95">
+        <v>0.21437328650055926</v>
+      </c>
+      <c r="G75" s="95">
+        <v>2.4858849377488674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="95">
+        <v>26066.588235294115</v>
+      </c>
+      <c r="C76" s="95">
+        <v>80</v>
+      </c>
+      <c r="D76" s="95">
+        <v>325.83235294117645</v>
+      </c>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="95"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="95"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="96">
+        <v>28002.77647058824</v>
+      </c>
+      <c r="C78" s="96">
+        <v>84</v>
+      </c>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C3:G8"/>
+    <mergeCell ref="C31:G32"/>
+    <mergeCell ref="C33:G34"/>
+    <mergeCell ref="C37:G38"/>
     <mergeCell ref="C53:G54"/>
     <mergeCell ref="C57:G58"/>
     <mergeCell ref="C59:G60"/>
@@ -3187,11 +3659,6 @@
     <mergeCell ref="C45:G46"/>
     <mergeCell ref="C47:G48"/>
     <mergeCell ref="C51:G52"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C3:G8"/>
-    <mergeCell ref="C31:G32"/>
-    <mergeCell ref="C33:G34"/>
-    <mergeCell ref="C37:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3204,41 +3671,45 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.125" style="66" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="66"/>
+    <col min="2" max="6" width="9" style="66"/>
+    <col min="7" max="7" width="10.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="A1" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="74" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
@@ -3247,83 +3718,97 @@
       <c r="B3" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="68"/>
+      <c r="C3" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="68">
+        <f>_xlfn.STDEV.S(A3:A38)</f>
+        <v>6.1104042159696975E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="67">
         <v>0.45200000000000001</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="68"/>
+        <v>49</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="68">
+        <f>_xlfn.T.INV.2T(0.01,35)</f>
+        <v>2.7238055892080912</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="67">
         <v>0.35399999999999998</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="68"/>
+        <v>79</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="68">
+        <f>(AVERAGE(A3:A38-0.5))/(G3/SQRT(36))</f>
+        <v>-14.336203777003028</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="67">
         <v>0.45600000000000002</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="124" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="68"/>
+        <v>81</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="68">
+        <f>_xlfn.T.DIST.2T(-G5,35)</f>
+        <v>3.2344921378956443E-16</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="67">
         <v>0.47099999999999997</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="124" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="68"/>
+        <v>84</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="68" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="67">
         <v>0.46800000000000003</v>
       </c>
       <c r="B8" s="69"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="70"/>
       <c r="K8" s="71"/>
     </row>
@@ -3529,12 +4014,17 @@
   <dimension ref="A1:O698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="9.625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="21" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="21" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="21" customWidth="1"/>
     <col min="10" max="10" width="9.625" style="21" customWidth="1"/>
     <col min="11" max="11" width="5.25" style="20" customWidth="1"/>
@@ -3797,13 +4287,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
+      <c r="A1" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -3814,7 +4304,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -3845,7 +4335,7 @@
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -3856,7 +4346,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -3864,7 +4354,7 @@
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -3881,7 +4371,7 @@
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3892,19 +4382,19 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="M6" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3928,7 +4418,7 @@
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3977,10 +4467,10 @@
     </row>
     <row r="11" spans="1:15" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="25">
         <v>5</v>
@@ -3995,12 +4485,14 @@
     </row>
     <row r="12" spans="1:15" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
+      <c r="C12" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
       <c r="K12" s="25">
         <v>6</v>
       </c>
@@ -4029,10 +4521,10 @@
     </row>
     <row r="14" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="25">
         <v>8</v>
@@ -4060,12 +4552,14 @@
     </row>
     <row r="16" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="130"/>
+      <c r="C16" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
       <c r="K16" s="25">
         <v>10</v>
       </c>
@@ -4079,12 +4573,12 @@
     </row>
     <row r="17" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
       <c r="K17" s="25">
         <v>11</v>
       </c>
@@ -4098,12 +4592,12 @@
     </row>
     <row r="18" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
       <c r="K18" s="25">
         <v>12</v>
       </c>
@@ -4117,12 +4611,12 @@
     </row>
     <row r="19" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="139"/>
       <c r="K19" s="25">
         <v>13</v>
       </c>
@@ -4181,10 +4675,10 @@
     </row>
     <row r="23" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="21"/>
@@ -4218,12 +4712,14 @@
     </row>
     <row r="25" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="130"/>
+      <c r="C25" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="133"/>
       <c r="K25" s="25">
         <v>19</v>
       </c>
@@ -4237,12 +4733,12 @@
     </row>
     <row r="26" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
       <c r="K26" s="25">
         <v>20</v>
       </c>
@@ -4256,12 +4752,12 @@
     </row>
     <row r="27" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
       <c r="K27" s="25">
         <v>21</v>
       </c>
@@ -4275,12 +4771,12 @@
     </row>
     <row r="28" spans="1:15" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="136"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="139"/>
       <c r="K28" s="25">
         <v>22</v>
       </c>
@@ -4707,80 +5203,192 @@
     </row>
     <row r="66" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
       <c r="M66" s="19"/>
     </row>
-    <row r="67" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
+    <row r="67" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
       <c r="M67" s="19"/>
     </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
+    <row r="68" spans="1:13" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
       <c r="M68" s="19"/>
     </row>
-    <row r="69" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
+    <row r="69" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="97"/>
+      <c r="B69" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="M69" s="19"/>
     </row>
-    <row r="70" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
+    <row r="70" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="95">
+        <v>6.40625</v>
+      </c>
+      <c r="C70" s="95">
+        <v>5.8125</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
+    <row r="71" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="95">
+        <v>1.6683467741935485</v>
+      </c>
+      <c r="C71" s="95">
+        <v>2.157258064516129</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
       <c r="M71" s="19"/>
     </row>
-    <row r="72" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
+    <row r="72" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="95">
+        <v>32</v>
+      </c>
+      <c r="C72" s="95">
+        <v>32</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
       <c r="M72" s="19"/>
     </row>
-    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
+    <row r="73" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="95">
+        <v>0.16047266209617342</v>
+      </c>
+      <c r="C73" s="95"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
       <c r="M73" s="19"/>
     </row>
-    <row r="74" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
+    <row r="74" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="95">
+        <v>0</v>
+      </c>
+      <c r="C74" s="95"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
       <c r="M74" s="19"/>
     </row>
-    <row r="75" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
+    <row r="75" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="95">
+        <v>31</v>
+      </c>
+      <c r="C75" s="95"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
       <c r="M75" s="19"/>
     </row>
-    <row r="76" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
+    <row r="76" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="95">
+        <v>1.8727122259348283</v>
+      </c>
+      <c r="C76" s="95"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
       <c r="M76" s="19"/>
     </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
+    <row r="77" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="95">
+        <v>3.5283117234621436E-2</v>
+      </c>
+      <c r="C77" s="95"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
       <c r="M77" s="19"/>
     </row>
-    <row r="78" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
+    <row r="78" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="95">
+        <v>1.6955187825458664</v>
+      </c>
+      <c r="C78" s="95"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
       <c r="M78" s="19"/>
     </row>
-    <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
+    <row r="79" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" s="95">
+        <v>7.0566234469242872E-2</v>
+      </c>
+      <c r="C79" s="95"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
       <c r="M79" s="19"/>
     </row>
-    <row r="80" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
+    <row r="80" spans="1:13" s="18" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="96">
+        <v>2.0395134463964082</v>
+      </c>
+      <c r="C80" s="96"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
       <c r="M80" s="19"/>
     </row>
     <row r="81" spans="11:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -11214,6 +11822,7 @@
     <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11221,14 +11830,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAC2B83-CD7A-402C-8668-CDC6A9067950}">
   <dimension ref="A1:Z2917"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="68.5" style="77" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="76" customWidth="1"/>
+    <col min="2" max="2" width="9" style="76" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="76" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="76" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" style="76" customWidth="1"/>
@@ -12127,7 +12734,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12145,7 +12752,7 @@
     </row>
     <row r="3" spans="1:16" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -12159,48 +12766,48 @@
     </row>
     <row r="4" spans="1:16" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
       <c r="D4" s="78"/>
-      <c r="E4" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
+      <c r="E4" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="146"/>
       <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="78"/>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
       <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="152"/>
       <c r="P6" s="77"/>
     </row>
     <row r="7" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
@@ -12211,7 +12818,7 @@
     </row>
     <row r="8" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -12222,7 +12829,7 @@
     </row>
     <row r="9" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B9" s="78"/>
       <c r="C9" s="78"/>
@@ -12233,7 +12840,7 @@
     </row>
     <row r="10" spans="1:16" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="78"/>
       <c r="C10" s="78"/>
@@ -12244,60 +12851,60 @@
     </row>
     <row r="11" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
+        <v>92</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
       <c r="P11" s="77"/>
     </row>
     <row r="12" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="152"/>
+        <v>93</v>
+      </c>
+      <c r="B12" s="153" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="155"/>
       <c r="P12" s="77"/>
     </row>
     <row r="13" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="150" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="152"/>
+        <v>94</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="155"/>
       <c r="P13" s="77"/>
     </row>
     <row r="14" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
-      <c r="B14" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="152"/>
+      <c r="B14" s="153" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="155"/>
       <c r="P14" s="77"/>
     </row>
     <row r="15" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12312,13 +12919,13 @@
     </row>
     <row r="16" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P16" s="77"/>
     </row>
     <row r="17" spans="1:16" s="79" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="85" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
@@ -12328,9 +12935,11 @@
       <c r="P17" s="77"/>
     </row>
     <row r="18" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="86" t="s">
+        <v>150</v>
+      </c>
       <c r="C18" s="87" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D18" s="88"/>
       <c r="E18" s="88"/>
@@ -12339,7 +12948,9 @@
       <c r="P18" s="77"/>
     </row>
     <row r="19" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="86" t="s">
+        <v>149</v>
+      </c>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
@@ -12350,19 +12961,19 @@
     <row r="20" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="C20" s="89" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G20" s="89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P20" s="77"/>
     </row>
@@ -12770,7 +13381,7 @@
       <c r="I40" s="80"/>
       <c r="P40" s="77"/>
       <c r="Z40" s="92" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="3:26" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13220,7 +13831,7 @@
       <c r="O64" s="93"/>
       <c r="P64" s="77"/>
     </row>
-    <row r="65" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" s="89"/>
       <c r="D65" s="89">
         <v>2</v>
@@ -13238,7 +13849,7 @@
       <c r="O65" s="77"/>
       <c r="P65" s="77"/>
     </row>
-    <row r="66" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="89"/>
       <c r="D66" s="89">
         <v>6</v>
@@ -13256,7 +13867,7 @@
       <c r="O66" s="77"/>
       <c r="P66" s="77"/>
     </row>
-    <row r="67" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" s="89"/>
       <c r="D67" s="89">
         <v>4</v>
@@ -13274,7 +13885,7 @@
       <c r="O67" s="77"/>
       <c r="P67" s="77"/>
     </row>
-    <row r="68" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" s="89"/>
       <c r="D68" s="89">
         <v>5</v>
@@ -13291,7 +13902,7 @@
       <c r="O68" s="77"/>
       <c r="P68" s="77"/>
     </row>
-    <row r="69" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" s="89"/>
       <c r="D69" s="89">
         <v>2</v>
@@ -13308,7 +13919,7 @@
       <c r="O69" s="77"/>
       <c r="P69" s="77"/>
     </row>
-    <row r="70" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C70" s="89"/>
       <c r="D70" s="89">
         <v>7</v>
@@ -13325,7 +13936,7 @@
       <c r="O70" s="77"/>
       <c r="P70" s="77"/>
     </row>
-    <row r="71" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C71" s="89"/>
       <c r="D71" s="89">
         <v>8</v>
@@ -13341,7 +13952,7 @@
       <c r="O71" s="77"/>
       <c r="P71" s="77"/>
     </row>
-    <row r="72" spans="2:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C72" s="89"/>
       <c r="D72" s="89">
         <v>7</v>
@@ -13352,7 +13963,7 @@
       <c r="H72" s="80"/>
       <c r="P72" s="77"/>
     </row>
-    <row r="73" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="78"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
@@ -13362,7 +13973,7 @@
       <c r="H73" s="80"/>
       <c r="P73" s="77"/>
     </row>
-    <row r="74" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="78"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
@@ -13372,154 +13983,296 @@
       <c r="H74" s="80"/>
       <c r="P74" s="77"/>
     </row>
-    <row r="75" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-    </row>
-    <row r="76" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-    </row>
-    <row r="77" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-    </row>
-    <row r="78" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-    </row>
-    <row r="79" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="78"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-    </row>
-    <row r="80" spans="2:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-    </row>
-    <row r="81" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-    </row>
-    <row r="82" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-    </row>
-    <row r="83" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-    </row>
-    <row r="84" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-    </row>
-    <row r="85" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-    </row>
-    <row r="86" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-    </row>
-    <row r="87" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-    </row>
-    <row r="88" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="78"/>
-      <c r="C88" s="78"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-    </row>
-    <row r="89" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-    </row>
-    <row r="90" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-    </row>
-    <row r="91" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-    </row>
-    <row r="92" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:16" s="79" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="95">
+        <v>37</v>
+      </c>
+      <c r="C79" s="95">
+        <v>204</v>
+      </c>
+      <c r="D79" s="95">
+        <v>5.5135135135135132</v>
+      </c>
+      <c r="E79" s="95">
+        <v>4.812312312312315</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:16" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="95">
+        <v>52</v>
+      </c>
+      <c r="C80" s="95">
+        <v>290</v>
+      </c>
+      <c r="D80" s="95">
+        <v>5.5769230769230766</v>
+      </c>
+      <c r="E80" s="95">
+        <v>5.817496229260934</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="95">
+        <v>40</v>
+      </c>
+      <c r="C81" s="95">
+        <v>192</v>
+      </c>
+      <c r="D81" s="95">
+        <v>4.8</v>
+      </c>
+      <c r="E81" s="95">
+        <v>4.2666666666666657</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="95">
+        <v>44</v>
+      </c>
+      <c r="C82" s="95">
+        <v>265</v>
+      </c>
+      <c r="D82" s="95">
+        <v>6.0227272727272725</v>
+      </c>
+      <c r="E82" s="95">
+        <v>2.580866807610994</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:15" s="79" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="96">
+        <v>47</v>
+      </c>
+      <c r="C83" s="96">
+        <v>233</v>
+      </c>
+      <c r="D83" s="96">
+        <v>4.957446808510638</v>
+      </c>
+      <c r="E83" s="96">
+        <v>2.8242368177613333</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:15" s="79" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="95">
+        <v>42.699555447425837</v>
+      </c>
+      <c r="C88" s="95">
+        <v>4</v>
+      </c>
+      <c r="D88" s="95">
+        <v>10.674888861856459</v>
+      </c>
+      <c r="E88" s="95">
+        <v>2.6163116601193495</v>
+      </c>
+      <c r="F88" s="95">
+        <v>3.6181351901758814E-2</v>
+      </c>
+      <c r="G88" s="95">
+        <v>2.4136389417602868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="95">
+        <v>877.22771727984502</v>
+      </c>
+      <c r="C89" s="95">
+        <v>215</v>
+      </c>
+      <c r="D89" s="95">
+        <v>4.0801289175806748</v>
+      </c>
+      <c r="E89" s="95"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
+    </row>
+    <row r="90" spans="1:15" s="79" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="95"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+    </row>
+    <row r="91" spans="1:15" s="79" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="96">
+        <v>919.92727272727086</v>
+      </c>
+      <c r="C91" s="96">
+        <v>219</v>
+      </c>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+    </row>
+    <row r="92" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="78"/>
       <c r="C92" s="78"/>
       <c r="D92" s="78"/>
       <c r="E92" s="78"/>
       <c r="F92" s="78"/>
     </row>
-    <row r="93" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="78"/>
       <c r="C93" s="78"/>
       <c r="D93" s="78"/>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
     </row>
-    <row r="94" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="78"/>
       <c r="C94" s="78"/>
       <c r="D94" s="78"/>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
     </row>
-    <row r="95" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="78"/>
       <c r="C95" s="78"/>
       <c r="D95" s="78"/>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
     </row>
-    <row r="96" spans="2:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="78"/>
       <c r="C96" s="78"/>
       <c r="D96" s="78"/>
@@ -41467,6 +42220,7 @@
     <mergeCell ref="B14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41475,13 +42229,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="31" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="31" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="31" customWidth="1"/>
     <col min="4" max="4" width="8.375" style="31" customWidth="1"/>
@@ -42319,106 +43071,108 @@
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="159" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="A3" s="162" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
     </row>
     <row r="8" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="C10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="D10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -42866,38 +43620,42 @@
       <c r="A33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
     </row>
     <row r="34" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="168"/>
+      <c r="C34" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="158"/>
     </row>
     <row r="35" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="153"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="155"/>
+      <c r="C35" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="167"/>
     </row>
     <row r="36" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -42914,24 +43672,28 @@
       <c r="B37" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="168"/>
+      <c r="C37" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="158"/>
     </row>
     <row r="38" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="153"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="155"/>
+      <c r="C38" s="165" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="167"/>
     </row>
     <row r="39" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
@@ -42944,85 +43706,87 @@
       <c r="A40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
+      <c r="B40" s="168" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="168"/>
     </row>
     <row r="41" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
+        <v>47</v>
+      </c>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
     </row>
     <row r="42" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="159"/>
+      <c r="B42" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="171"/>
     </row>
     <row r="43" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="162"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="174"/>
     </row>
     <row r="44" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
-      <c r="B44" s="160"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="162"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="174"/>
     </row>
     <row r="45" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="165"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="177"/>
     </row>
     <row r="46" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
@@ -43040,48 +43804,48 @@
     </row>
     <row r="48" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="156" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="168"/>
     </row>
     <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="156"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="156"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
     </row>
     <row r="50" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
     </row>
     <row r="51" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
@@ -43092,55 +43856,57 @@
     </row>
     <row r="52" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="159"/>
+      <c r="B52" s="169" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="171"/>
     </row>
     <row r="53" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
-      <c r="B53" s="160"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="162"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
+      <c r="G53" s="173"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="174"/>
     </row>
     <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
-      <c r="B54" s="160"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="162"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="174"/>
     </row>
     <row r="55" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="165"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="176"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="177"/>
     </row>
     <row r="56" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
@@ -43172,7 +43938,7 @@
     </row>
     <row r="60" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="65"/>
       <c r="C60" s="65"/>
@@ -43185,262 +43951,664 @@
       <c r="J60" s="65"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+    <row r="61" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:11" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="A63" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
     </row>
     <row r="64" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-    </row>
-    <row r="75" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-    </row>
-    <row r="76" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-    </row>
-    <row r="77" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-    </row>
-    <row r="78" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-    </row>
-    <row r="79" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="A64" s="95">
+        <v>1</v>
+      </c>
+      <c r="B64" s="95">
+        <v>4</v>
+      </c>
+      <c r="C64" s="95">
+        <v>281</v>
+      </c>
+      <c r="D64" s="95">
+        <v>70.25</v>
+      </c>
+      <c r="E64" s="95">
+        <v>472.91666666666669</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="95">
+        <v>2</v>
+      </c>
+      <c r="B65" s="95">
+        <v>4</v>
+      </c>
+      <c r="C65" s="95">
+        <v>272</v>
+      </c>
+      <c r="D65" s="95">
+        <v>68</v>
+      </c>
+      <c r="E65" s="95">
+        <v>126</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="95">
+        <v>3</v>
+      </c>
+      <c r="B66" s="95">
+        <v>4</v>
+      </c>
+      <c r="C66" s="95">
+        <v>274</v>
+      </c>
+      <c r="D66" s="95">
+        <v>68.5</v>
+      </c>
+      <c r="E66" s="95">
+        <v>327</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="95">
+        <v>4</v>
+      </c>
+      <c r="B67" s="95">
+        <v>4</v>
+      </c>
+      <c r="C67" s="95">
+        <v>226</v>
+      </c>
+      <c r="D67" s="95">
+        <v>56.5</v>
+      </c>
+      <c r="E67" s="95">
+        <v>37.666666666666664</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="95">
+        <v>5</v>
+      </c>
+      <c r="B68" s="95">
+        <v>4</v>
+      </c>
+      <c r="C68" s="95">
+        <v>315</v>
+      </c>
+      <c r="D68" s="95">
+        <v>78.75</v>
+      </c>
+      <c r="E68" s="95">
+        <v>91.583333333333329</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="95">
+        <v>6</v>
+      </c>
+      <c r="B69" s="95">
+        <v>4</v>
+      </c>
+      <c r="C69" s="95">
+        <v>238</v>
+      </c>
+      <c r="D69" s="95">
+        <v>59.5</v>
+      </c>
+      <c r="E69" s="95">
+        <v>571.66666666666663</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="95">
+        <v>7</v>
+      </c>
+      <c r="B70" s="95">
+        <v>4</v>
+      </c>
+      <c r="C70" s="95">
+        <v>306</v>
+      </c>
+      <c r="D70" s="95">
+        <v>76.5</v>
+      </c>
+      <c r="E70" s="95">
+        <v>359</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="95">
+        <v>8</v>
+      </c>
+      <c r="B71" s="95">
+        <v>4</v>
+      </c>
+      <c r="C71" s="95">
+        <v>279</v>
+      </c>
+      <c r="D71" s="95">
+        <v>69.75</v>
+      </c>
+      <c r="E71" s="95">
+        <v>414.91666666666669</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="95">
+        <v>9</v>
+      </c>
+      <c r="B72" s="95">
+        <v>4</v>
+      </c>
+      <c r="C72" s="95">
+        <v>242</v>
+      </c>
+      <c r="D72" s="95">
+        <v>60.5</v>
+      </c>
+      <c r="E72" s="95">
+        <v>709.66666666666663</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="95">
+        <v>10</v>
+      </c>
+      <c r="B73" s="95">
+        <v>4</v>
+      </c>
+      <c r="C73" s="95">
+        <v>314</v>
+      </c>
+      <c r="D73" s="95">
+        <v>78.5</v>
+      </c>
+      <c r="E73" s="95">
+        <v>127</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="95">
+        <v>11</v>
+      </c>
+      <c r="B74" s="95">
+        <v>4</v>
+      </c>
+      <c r="C74" s="95">
+        <v>244</v>
+      </c>
+      <c r="D74" s="95">
+        <v>61</v>
+      </c>
+      <c r="E74" s="95">
+        <v>690</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="95">
+        <v>12</v>
+      </c>
+      <c r="B75" s="95">
+        <v>4</v>
+      </c>
+      <c r="C75" s="95">
+        <v>305</v>
+      </c>
+      <c r="D75" s="95">
+        <v>76.25</v>
+      </c>
+      <c r="E75" s="95">
+        <v>98.25</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="95">
+        <v>13</v>
+      </c>
+      <c r="B76" s="95">
+        <v>4</v>
+      </c>
+      <c r="C76" s="95">
+        <v>276</v>
+      </c>
+      <c r="D76" s="95">
+        <v>69</v>
+      </c>
+      <c r="E76" s="95">
+        <v>746</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="95">
+        <v>14</v>
+      </c>
+      <c r="B77" s="95">
+        <v>4</v>
+      </c>
+      <c r="C77" s="95">
+        <v>242</v>
+      </c>
+      <c r="D77" s="95">
+        <v>60.5</v>
+      </c>
+      <c r="E77" s="95">
+        <v>459.66666666666669</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="95">
+        <v>15</v>
+      </c>
+      <c r="B78" s="95">
+        <v>4</v>
+      </c>
+      <c r="C78" s="95">
+        <v>308</v>
+      </c>
+      <c r="D78" s="95">
+        <v>77</v>
+      </c>
+      <c r="E78" s="95">
+        <v>368.66666666666669</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="95">
+        <v>16</v>
+      </c>
+      <c r="B79" s="95">
+        <v>4</v>
+      </c>
+      <c r="C79" s="95">
+        <v>343</v>
+      </c>
+      <c r="D79" s="95">
+        <v>85.75</v>
+      </c>
+      <c r="E79" s="95">
+        <v>72.916666666666671</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="95">
+        <v>17</v>
+      </c>
+      <c r="B80" s="95">
+        <v>4</v>
+      </c>
+      <c r="C80" s="95">
+        <v>259</v>
+      </c>
+      <c r="D80" s="95">
+        <v>64.75</v>
+      </c>
+      <c r="E80" s="95">
+        <v>144.25</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
     </row>
     <row r="81" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="A81" s="95">
+        <v>18</v>
+      </c>
+      <c r="B81" s="95">
+        <v>4</v>
+      </c>
+      <c r="C81" s="95">
+        <v>281</v>
+      </c>
+      <c r="D81" s="95">
+        <v>70.25</v>
+      </c>
+      <c r="E81" s="95">
+        <v>320.25</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
     </row>
     <row r="82" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="A82" s="95">
+        <v>19</v>
+      </c>
+      <c r="B82" s="95">
+        <v>4</v>
+      </c>
+      <c r="C82" s="95">
+        <v>309</v>
+      </c>
+      <c r="D82" s="95">
+        <v>77.25</v>
+      </c>
+      <c r="E82" s="95">
+        <v>201.58333333333334</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82"/>
     </row>
     <row r="83" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="A83" s="95">
+        <v>20</v>
+      </c>
+      <c r="B83" s="95">
+        <v>4</v>
+      </c>
+      <c r="C83" s="95">
+        <v>326</v>
+      </c>
+      <c r="D83" s="95">
+        <v>81.5</v>
+      </c>
+      <c r="E83" s="95">
+        <v>365.66666666666669</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="95"/>
+      <c r="F84"/>
+      <c r="G84"/>
     </row>
     <row r="85" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="A85" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="95">
+        <v>20</v>
+      </c>
+      <c r="C85" s="95">
+        <v>1516</v>
+      </c>
+      <c r="D85" s="95">
+        <v>75.8</v>
+      </c>
+      <c r="E85" s="95">
+        <v>256.58947368421036</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
     </row>
     <row r="86" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="A86" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="95">
+        <v>20</v>
+      </c>
+      <c r="C86" s="95">
+        <v>1486</v>
+      </c>
+      <c r="D86" s="95">
+        <v>74.3</v>
+      </c>
+      <c r="E86" s="95">
+        <v>350.11578947368406</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
     </row>
     <row r="87" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="A87" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="95">
+        <v>20</v>
+      </c>
+      <c r="C87" s="95">
+        <v>1217</v>
+      </c>
+      <c r="D87" s="95">
+        <v>60.85</v>
+      </c>
+      <c r="E87" s="95">
+        <v>242.76578947368435</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="96">
+        <v>20</v>
+      </c>
+      <c r="C88" s="96">
+        <v>1421</v>
+      </c>
+      <c r="D88" s="96">
+        <v>71.05</v>
+      </c>
+      <c r="E88" s="96">
+        <v>338.89210526315776</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="1:7" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
     </row>
     <row r="92" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
+      <c r="A92" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G92" s="97" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="93" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
+      <c r="A93" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="95">
+        <v>5184</v>
+      </c>
+      <c r="C93" s="95">
+        <v>19</v>
+      </c>
+      <c r="D93" s="95">
+        <v>272.84210526315792</v>
+      </c>
+      <c r="E93" s="95">
+        <v>0.8940551540968904</v>
+      </c>
+      <c r="F93" s="95">
+        <v>0.59140788334315997</v>
+      </c>
+      <c r="G93" s="95">
+        <v>1.7719718444288346</v>
+      </c>
     </row>
     <row r="94" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
+      <c r="A94" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="95">
+        <v>2719.0999999999985</v>
+      </c>
+      <c r="C94" s="95">
+        <v>3</v>
+      </c>
+      <c r="D94" s="95">
+        <v>906.36666666666622</v>
+      </c>
+      <c r="E94" s="95">
+        <v>2.9700027019413717</v>
+      </c>
+      <c r="F94" s="95">
+        <v>3.930870571108961E-2</v>
+      </c>
+      <c r="G94" s="95">
+        <v>2.7664379256680744</v>
+      </c>
     </row>
     <row r="95" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
+      <c r="A95" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="95">
+        <v>17394.900000000001</v>
+      </c>
+      <c r="C95" s="95">
+        <v>57</v>
+      </c>
+      <c r="D95" s="95">
+        <v>305.17368421052635</v>
+      </c>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
     </row>
     <row r="96" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+    </row>
+    <row r="97" spans="1:7" s="29" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="96">
+        <v>25298</v>
+      </c>
+      <c r="C97" s="96">
+        <v>79</v>
+      </c>
+      <c r="D97" s="96"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="96"/>
+      <c r="G97" s="96"/>
+    </row>
+    <row r="98" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="113" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="114" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="115" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -43518,18 +44686,19 @@
     <row r="187" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="B40:K41"/>
+    <mergeCell ref="B42:K45"/>
+    <mergeCell ref="B48:K50"/>
+    <mergeCell ref="B52:K55"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:K8"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="B40:K41"/>
-    <mergeCell ref="B42:K45"/>
-    <mergeCell ref="B48:K50"/>
-    <mergeCell ref="B52:K55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>